--- a/test data/astar 5 tracks.xlsx
+++ b/test data/astar 5 tracks.xlsx
@@ -1497,7 +1497,7 @@
   <dimension ref="A1:AG152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2:AG31"/>
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
